--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -52,9 +52,6 @@
     <t>yuv</t>
   </si>
   <si>
-    <t>0.5 - 20</t>
-  </si>
-  <si>
     <t>epochs</t>
   </si>
   <si>
@@ -73,7 +70,19 @@
     <t>description</t>
   </si>
   <si>
-    <t>dropout, no bn</t>
+    <t>bn + leaky_relu (downsampling) + relu (upsampling)</t>
+  </si>
+  <si>
+    <t>dropout, no bn, remove conv5 and conv6 + relu</t>
+  </si>
+  <si>
+    <t>0.5 - P 20</t>
+  </si>
+  <si>
+    <t>0.5 - P 10</t>
+  </si>
+  <si>
+    <t>bn + leaky_relu (downsampling 2 times) + relu (upsampling 2 times)</t>
   </si>
 </sst>
 </file>
@@ -405,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +432,7 @@
     <col min="10" max="10" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -450,22 +459,22 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -488,7 +497,7 @@
         <v>2E-3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1">
         <v>15</v>
@@ -507,6 +516,85 @@
       </c>
       <c r="M2" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>128</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1">
+        <v>75</v>
+      </c>
+      <c r="I3" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>87</v>
+      </c>
+      <c r="K3" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>87</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>256</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>86.16</v>
+      </c>
+      <c r="K4" s="1">
+        <v>35.9</v>
+      </c>
+      <c r="L4" s="1">
+        <v>84</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -83,19 +83,13 @@
     <t xml:space="preserve">dropout, no bn, remove conv5 and conv6 + relu</t>
   </si>
   <si>
-    <t xml:space="preserve">bn + leaky_relu (downsampling) + relu (upsampling)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5 - P 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bn + leaky_relu (downsampling 2 times) + relu (upsampling 2 times)</t>
+    <t xml:space="preserve">0.5 - #50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bn + leaky_relu (downsampling 4 times) + relu (upsampling 4 times)</t>
   </si>
   <si>
     <t xml:space="preserve">resnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5 - #50</t>
   </si>
   <si>
     <t xml:space="preserve">rgb</t>
@@ -218,7 +212,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -340,18 +334,6 @@
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -367,25 +349,28 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,7 +381,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -408,7 +393,7 @@
         <v>0.002</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>200</v>
@@ -443,7 +428,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>128</v>
@@ -452,7 +437,7 @@
         <v>0.002</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>111</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">training mae</t>
   </si>
   <si>
-    <t xml:space="preserve">training acc</t>
+    <t xml:space="preserve">training acc/eacc</t>
   </si>
   <si>
     <t xml:space="preserve">validation mse</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">validation mae</t>
   </si>
   <si>
-    <t xml:space="preserve">validation acc</t>
+    <t xml:space="preserve">validation acc/eacc</t>
   </si>
   <si>
     <t xml:space="preserve">description</t>
@@ -86,6 +86,12 @@
     <t xml:space="preserve">0.5 - #50</t>
   </si>
   <si>
+    <t xml:space="preserve">86 – 11.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67 – 5.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">bn + leaky_relu (downsampling 4 times) + relu (upsampling 4 times)</t>
   </si>
   <si>
@@ -96,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.5 - #10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 – 9.3</t>
   </si>
 </sst>
 </file>
@@ -209,10 +218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -224,10 +233,13 @@
     <col collapsed="false" hidden="false" max="8" min="7" style="1" width="8.63775510204082"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.6071428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.4132653061224"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="42.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1023" min="16" style="1" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -276,6 +288,7 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -366,11 +379,20 @@
       <c r="J4" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <v>11.5</v>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,7 +403,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -428,7 +450,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>128</v>
@@ -437,28 +459,31 @@
         <v>0.002</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>71</v>
+        <v>60.7</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>8.5</v>
+        <v>5.1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>11</v>
+        <v>12.3</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>6.3</v>
+        <v>5.2</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -480,7 +505,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t xml:space="preserve">75 – 9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.7 – 28.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96 – 24.8</t>
   </si>
   <si>
     <t xml:space="preserve">imagenet</t>
@@ -254,10 +263,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -533,76 +542,73 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -614,28 +620,28 @@
         <v>128</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>199.4</v>
+        <v>75.3</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>10.8</v>
+        <v>11.6</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>34</v>
@@ -644,50 +650,97 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="1" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>150.2</v>
+        <v>199.4</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>290.2</v>
+        <v>282</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="O10" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H11" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>290.2</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I12" s="1" t="n">
         <v>134.5</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J12" s="1" t="n">
         <v>7.69</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="1" t="n">
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M12" s="1" t="n">
         <v>11.2</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>39</v>
+      <c r="N12" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="convnet" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">epochs</t>
   </si>
   <si>
-    <t xml:space="preserve">train mse</t>
+    <t xml:space="preserve">training mse</t>
   </si>
   <si>
     <t xml:space="preserve">training mae</t>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t xml:space="preserve">68.8 – 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training G loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation G loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
@@ -263,27 +281,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="42.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1023" min="16" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="16" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,6 +602,7 @@
       <c r="N7" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
@@ -698,6 +716,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
       <c r="H11" s="1" t="n">
         <v>24</v>
       </c>
@@ -721,6 +746,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
       <c r="H12" s="1" t="n">
         <v>30</v>
       </c>
@@ -741,6 +773,114 @@
       </c>
       <c r="N12" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -767,7 +907,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="convnet" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -284,23 +284,23 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="16" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1023" min="16" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,21 +775,28 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="0"/>
-      <c r="N13" s="0"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
@@ -902,12 +909,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H13:O13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
